--- a/BUYERS_REPORT.xlsx
+++ b/BUYERS_REPORT.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>REQUEST ID</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>PAID AMOUNT</t>
-  </si>
-  <si>
-    <t>BUYER ID</t>
   </si>
 </sst>
 </file>
@@ -89,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:L2"/>
+  <dimension ref="B2:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -126,9 +123,6 @@
       <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/BUYERS_REPORT.xlsx
+++ b/BUYERS_REPORT.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="buyer_report" r:id="rId3" sheetId="1"/>
+    <sheet name="buyer_report_2020-10-15-2020-11" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
   <si>
     <t>REQUEST ID</t>
   </si>
@@ -42,6 +42,27 @@
   </si>
   <si>
     <t>PAID AMOUNT</t>
+  </si>
+  <si>
+    <t>goyalanmol1312@gmail.com</t>
+  </si>
+  <si>
+    <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>02/11/2020</t>
+  </si>
+  <si>
+    <t>Order Received</t>
+  </si>
+  <si>
+    <t>30/10/2020</t>
+  </si>
+  <si>
+    <t>Order Shipped</t>
+  </si>
+  <si>
+    <t>Order Ready</t>
   </si>
 </sst>
 </file>
@@ -86,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K2"/>
+  <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -124,6 +145,326 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>908.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
+        <v>9432.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="n">
+        <v>700.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>22652.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>26657.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="n">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="n">
+        <v>37870.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>400.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>400.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>65432.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>800.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>82763.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2500.0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
+        <v>90432.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="n">
+        <v>240.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>99032.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>99432.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="n">
+        <v>800.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/BUYERS_REPORT.xlsx
+++ b/BUYERS_REPORT.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="buyer_report_2020-10-15-2020-11" r:id="rId3" sheetId="1"/>
+    <sheet name="buyer_report_2020-11-01-2020-11" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>REQUEST ID</t>
   </si>
@@ -56,13 +56,7 @@
     <t>Order Received</t>
   </si>
   <si>
-    <t>30/10/2020</t>
-  </si>
-  <si>
     <t>Order Shipped</t>
-  </si>
-  <si>
-    <t>Order Ready</t>
   </si>
 </sst>
 </file>
@@ -107,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:K12"/>
+  <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,48 +173,48 @@
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>9432.0</v>
+        <v>22652.0</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="E4" t="n">
-        <v>700.0</v>
+        <v>400.0</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
       <c r="K4" t="n">
-        <v>700.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>22652.0</v>
+        <v>26657.0</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c r="E5" t="n">
-        <v>400.0</v>
+        <v>2000.0</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
@@ -235,24 +229,24 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K5" t="n">
-        <v>400.0</v>
+        <v>800.0</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="n">
-        <v>26657.0</v>
+        <v>37870.0</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0</v>
+        <v>8.0</v>
       </c>
       <c r="E6" t="n">
-        <v>2000.0</v>
+        <v>400.0</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -267,24 +261,24 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6" t="n">
-        <v>800.0</v>
+        <v>400.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="n">
-        <v>37870.0</v>
+        <v>82763.0</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>8.0</v>
+        <v>50.0</v>
       </c>
       <c r="E7" t="n">
-        <v>400.0</v>
+        <v>2500.0</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -299,170 +293,10 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K7" t="n">
-        <v>400.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="n">
-        <v>65432.0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="n">
-        <v>800.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="n">
-        <v>82763.0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2500.0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" t="n">
         <v>1000.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="n">
-        <v>90432.0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="n">
-        <v>240.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="n">
-        <v>99032.0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="n">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="n">
-        <v>99432.0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>800.0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>800.0</v>
       </c>
     </row>
   </sheetData>
